--- a/Supplementary Table.xlsx
+++ b/Supplementary Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangtianyuan\Desktop\基因组所\课题02.综述\文章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCC014-838F-4D29-936D-7EEC792F0D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198F2CF-FEB7-488B-8E04-A6A0967214F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1477" yWindow="263" windowWidth="19973" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1267" yWindow="563" windowWidth="20033" windowHeight="13709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="2" r:id="rId1"/>
     <sheet name="TableS2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="364">
   <si>
     <t>Software</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Docker/Singularity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Data Quality Control, simulator, and remove host</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -56,10 +48,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>The official software suite from Pacbio that encompassing workflows ranging from raw signal processing to base calling, sequence alignment, and so on</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.pacb.com/support/software-downloads/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -67,10 +55,6 @@
     <t>bam2fastx</t>
   </si>
   <si>
-    <t>Converts Pacbio BAM formatted sequencing data into FASTQ format</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/PacificBiosciences/bam2fastx.git</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -78,10 +62,6 @@
     <t>Guppy</t>
   </si>
   <si>
-    <t>ONT' official basecaller, but not update</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://community.nanoporetech.com/downloads</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -89,10 +69,6 @@
     <t>Dorado</t>
   </si>
   <si>
-    <t>An newer base-calling tool from Oxford Nanopore that has been instead of Guppy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/nanoporetech/dorado</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -146,10 +122,6 @@
     <t>NanoFilt</t>
   </si>
   <si>
-    <t>Filtering and trimming of long read sequencing data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/wdecoster/nanofilt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -157,10 +129,6 @@
     <t>LongQC</t>
   </si>
   <si>
-    <t>Data quality control of the PacBio and ONT long reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/yfukasawa/LongQC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -190,10 +158,6 @@
     <t>Winnowmap2</t>
   </si>
   <si>
-    <t>Long read / genome alignment software based on Minimap2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/marbl/Winnowmap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -239,10 +203,6 @@
     <t>Kraken2</t>
   </si>
   <si>
-    <t>K-mer based taxonomic  classifier that assigns taxonomic binning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ccb.jhu.edu/software/kraken2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,10 +211,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Bayesian Reestimation of Abundance with KrakEN(Kmer-baed)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ccb.jhu.edu/software/bracken/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -287,10 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Alignment and LCA algorithm, highly accurate cloud platform for long-read metagenomic analyses</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://bugseq.com/free</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -299,10 +251,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Mapping algorithm and EM-based estimation for analysis of long-read metagenomic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/DiltheyLab/MetaMaps</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -362,10 +310,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Sequence aligner for protein and translated DNA searche</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/bbuchfink/diamond</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -377,10 +321,6 @@
     <t>Hifiasm-meta</t>
   </si>
   <si>
-    <t>Haplotype-resolved assembler for accurate Hifi reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/lh3/hifiasm-meta</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -388,10 +328,6 @@
     <t>Hi-Canu</t>
   </si>
   <si>
-    <t>Accurate assembly  from high-fidelity long reads using Best overlap graph (BOG)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/marbl/canu</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -411,10 +347,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Generating bacterial genomes from metagenomes with Nanopore  sequencing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/bhattlab/lathe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -422,10 +354,6 @@
     <t>metaMDBG</t>
   </si>
   <si>
-    <t>Assembler for long and accurate metagenomics reads (e.g. PacBio HiFi) based on the minimizer de-Brujin graph (MDBG)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/GaetanBenoitDev/metaMDBG</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -456,10 +384,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>De novo long-read assembler using Marker graph</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/chanzuckerberg/shasta</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -467,10 +391,6 @@
     <t>OPERA-MS</t>
   </si>
   <si>
-    <t xml:space="preserve">Hybrid metagenomic assembler which combines short and long-read </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/CSB5/OPERA-MS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -502,10 +422,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Improves assemblies by correcting bases, fixing mis-assemblies and filling gaps via Hierarchical polishing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/broadinstitute/pilon</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -514,10 +430,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Standalone consensus module to correct raw contigs via Partial order alignment graph</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/isovic/racon</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -526,10 +438,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Correct draft sequences, create consensus sequences and variant calls from nanopore sequencing data via Neural network model</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/nanoporetech/medaka</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -538,10 +446,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Repeat-aware Polishing Tool Using HiFi Long Reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/Nextomics/NextPolish2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -583,10 +487,6 @@
   </si>
   <si>
     <t>MetaBAT2</t>
-  </si>
-  <si>
-    <t>Similarity-based binner with label propagation algorithm(LPA)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,10 +505,6 @@
     <t>metaWRAP</t>
   </si>
   <si>
-    <t>Similarity-based binner with Ensemble learning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -643,10 +539,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Similarity-based binner with Variational autoencoders</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -663,10 +555,6 @@
     <t>SemiBin</t>
   </si>
   <si>
-    <t>Similarity-based binner Contrastive learning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -683,10 +571,6 @@
     <t>metaBCC-LR</t>
   </si>
   <si>
-    <t>Long reads binner with Kmer-based, Composition, and DBSCAN algorithm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/anuradhawick/MetaBCC-LR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -694,10 +578,6 @@
     <t>LRBinner</t>
   </si>
   <si>
-    <t xml:space="preserve">Long reads binner with K-mer and latent representation </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/anuradhawick/LRBinner</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -705,10 +585,6 @@
     <t>GraphMB</t>
   </si>
   <si>
-    <t>Long reads binner with  graph machine learning algorithms and the assembly graph generated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/MicrobialDarkMatter/GraphMB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -716,10 +592,6 @@
     <t>MetaCoAG</t>
   </si>
   <si>
-    <t>Short and long reads binner via Composition, Coverage and Assembly Graphs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/metagentools/MetaCoAG</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -738,10 +610,6 @@
     <t>MUFFIN</t>
   </si>
   <si>
-    <t>Hybrid assembly and binning workflow for metagenomics, transcriptomics and pathway analysis.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/RVanDamme/MUFFIN</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -749,10 +617,6 @@
     <t>BASALT</t>
   </si>
   <si>
-    <t>Binning Across a Series of AssembLies Toolkit for short and long read</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/EMBL-PKU/BASALT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -772,10 +636,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Binning  and recovering MAG using Hi-C contact maps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/dyxstat/HiCBin</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -794,10 +654,6 @@
     <t>MetaCC</t>
   </si>
   <si>
-    <t>Analysis long-read and short-read metagenomic Hi-C data for binning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/dyxstat/MetaCC </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -805,10 +661,6 @@
     <t>Nanodisco</t>
   </si>
   <si>
-    <t>Discovering  multiple types of DNA methylation, and binning using nanopore sequencing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/fanglab/nanodisco</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -816,10 +668,6 @@
     <t>dRep</t>
   </si>
   <si>
-    <t>Rapidly comparing large numbers of genomes and choosing the best representative genome for each genome set.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/MrOlm/drep</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -827,10 +675,6 @@
     <t>GTDB-tk</t>
   </si>
   <si>
-    <t>Assigning objective taxonomic classifications to bacterial and archaeal genomes.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ecogenomics.github.io/GTDBTk/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -884,10 +728,6 @@
     <t>MetaCortex</t>
   </si>
   <si>
-    <t>Capturing variation in metagenomic assembly graphs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/SR-Martin/metacortex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -933,10 +773,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Improved Gene Prediction in Metagenomes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/gatech-genemark/MetaGeneMark-2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -967,10 +803,6 @@
     <t>NCBI-PGAP</t>
   </si>
   <si>
-    <t>NCBI Prokaryotic Genome Annotation Pipeline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/ncbi/pgap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1036,10 +868,6 @@
     <t>BLAST+</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Local Alignment Search Tool finds regions of similarity between biological sequences. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blast.ncbi.nlm.nih.gov/Blast.cgi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1047,10 +875,6 @@
     <t>tRNAscan-SE</t>
   </si>
   <si>
-    <t>Detection and Functional Classification of Transfer RNA Genes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://lowelab.ucsc.edu/tRNAscan-SE/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1059,10 +883,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Mining CRISPRs in Environmental Datasets</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/ctSkennerton/minced</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1070,10 +890,6 @@
     <t>SignalP</t>
   </si>
   <si>
-    <t>Rediction of Signal Peptides and their cleavage sites</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://services.healthtech.dtu.dk/services/SignalP-6.0/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1082,10 +898,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Deep Learning Model for Transmembrane Topology Prediction and Classification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://dtu.biolib.com/DeepTMHMM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1101,10 +913,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>EGGNOG-mapper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Functional annotation of novel sequences from the eggNOG database</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1116,10 +924,6 @@
     <t>AntiSMASH</t>
   </si>
   <si>
-    <t>Search a genome sequence for secondary metabolite biosynthetic gene clusters</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://antismash.secondarymetabolites.org/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1127,10 +931,6 @@
     <t>BiG-SCAPE</t>
   </si>
   <si>
-    <t>Constructs sequence similarity networks of BGCs and groups them into Cluster Families</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://bigscape-corason.secondarymetabolites.org/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1138,10 +938,6 @@
     <t>PlasFlow</t>
   </si>
   <si>
-    <t>Prediction of plasmid sequences in metagenomic contigs.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/smaegol/PlasFlow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1162,10 +958,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Highly-accurate, transcript-level quantification tools suitbale metagenome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/COMBINE-lab/salmon</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1290,14 +1082,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ASAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An interactive data analysis tool for selection, aggregation and visualization of metagenomic data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Data Visualization &amp; Plotting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1439,6 +1223,254 @@
   </si>
   <si>
     <t>Specialized tool for analyzing longitudinal and paired microbiome data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacBio official workflows ranging from  base calling to sequence alignment et al</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Converts BAM formatted sequencing data into FASTQ format</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A newer base-calling tool to instead Guppy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filtering and trimming of nonopore long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality control of the PacBio and ONT long reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A versatile pairwise aligner for long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-read or genome alignment software based on Minimap2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-mer based taxonomic classifier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian estimation of abundance with Kraken</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alignment and lower common ancestor (LCA) algorithm, highly accurate cloud platform for long-read metagenomic analyses</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapping algorithm and expectation-maximization-based estimation for analysis of long-read metagenomic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence aligner for protein and translated DNA searches, faster than BLAST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNpore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxonomic annotation of the corrected reads with taxator-tk and Kraken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/sustc-xylab/FUNpore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haplotype-resolved assembler for accurate HiFi reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generating bacterial genomes from metagenomes with Nanopore sequencing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembler for long and accurate metagenomics Reads (e.g. PacBio HiFi) based on the minimizer de-Brujin graph (MDBG)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid metagenomic assembler which combines short and long-read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improves assemblies by correcting bases, fixing mis-assemblies and filling gaps via hierarchical polishing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standalone consensus module to correct raw contigs via partial order alignment graph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct draft sequences, create consensus sequences and variant calls from nanopore sequencing data via neural network model</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity-based binner with label propagation algorithm </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity-based binner with ensemble learning, integrated MetaBAT2, MaxBin2 and Concoct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long reads binner with K-mer, composition, and density-based clustering</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long reads binner with K-mer and latent representation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long reads binner with graph machine learning algorithms and the assembly graph generated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short and long reads binner via composition, coverage and assembly graphs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid assembly and binning workflow for metagenomics, transcriptomics and pathway analysis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binning across a series of assembly’s toolkit for short and long read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binning using Hi-C contact maps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binning long-read and short-read metagenomic Hi-C data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discovering multiple types of DNA methylation, and binning using nanopore sequencing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapidly comparing large numbers of genomes and choosing the best representative genome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxonomic classifications for bacterial and archaeal genomes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capturing variations in metagenomic assembly graphs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggNOG-mapper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a genome sequence for secondary metabolite biosynthetic gene clusters (BGCs)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constructs sequence similarity networks of BGCs and groups them into cluster families</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction of plasmid sequences in metagenomic contigs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highly-accurate, transcript-level quantification tools suitable metagenome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/weizhongli/cdhit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyAmplicon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyMetagenome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyMicrobiome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis and visualization of microbiome data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy-to-use metagenome analysis pipeline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popular software, scripts and database annotation for EasyAmplicon and EasyMetagenome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved gene prediction in metagenomes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining CRISPRs in environmental datasets</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep learning model for transmembrane topology prediction and classification</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rediction of signal peptides and their cleavage sites</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection and functional classification of transfer RNA genes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic local alignment search tool finds regions of similarity between biological sequences. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCBI prokaryotic genome annotation pipeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity-based binner with ensemble learning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity-based binner with variational autoencoders</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similarity-based binner contrastive learning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat-aware polishing tool using HiFi long reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONT official basecaller, but not update</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accurate assembly  from high-fidelity long reads using Best overlap graph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>De novo long-read assembler using marker graph</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1446,7 +1478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1568,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1554,7 +1594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1562,8 +1602,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1592,10 +1633,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{B91A3CD8-F25C-421F-B961-856D50340099}"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="2" xr:uid="{32E9C8EB-A88F-4CCE-B0DC-83D8EBC492CB}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1877,23 +1925,24 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.86328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="77.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.06640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
@@ -1906,1089 +1955,1099 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>141</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>160</v>
+        <v>359</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>168</v>
+        <v>134</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>180</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>192</v>
+        <v>153</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>195</v>
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>198</v>
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>161</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>207</v>
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>167</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>213</v>
+        <v>170</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>216</v>
+        <v>173</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>219</v>
+        <v>175</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>222</v>
+        <v>178</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>227</v>
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>229</v>
+        <v>185</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>232</v>
+        <v>187</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>237</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A86" s="9" t="s">
-        <v>240</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
-        <v>243</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A87" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
-        <v>270</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A96" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>274</v>
+        <v>338</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>277</v>
+        <v>225</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>280</v>
+        <v>227</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>286</v>
+        <v>231</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
-        <v>290</v>
+        <v>234</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A104" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3023,72 +3082,74 @@
     <hyperlink ref="C31" r:id="rId27" xr:uid="{DB2728B6-F124-4AA1-8048-D2ACFCF0EFB7}"/>
     <hyperlink ref="C32" r:id="rId28" xr:uid="{E8C23F49-8087-46B9-B010-71BCBF859AD3}"/>
     <hyperlink ref="C33" r:id="rId29" xr:uid="{F1BFB6CC-E152-41EB-B4CD-3AF7939D46CA}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{9E6D6312-F0AB-4CB9-9A55-EDE2DB46B329}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{E5BE8BB0-3541-4F23-BA11-DBBD35543980}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{26533002-7DB9-43AE-A5FC-ACF13EA4A2C1}"/>
-    <hyperlink ref="C38" r:id="rId33" xr:uid="{99BBFC80-FCE0-4844-A8DB-41CE1B8D1DBB}"/>
-    <hyperlink ref="C39" r:id="rId34" xr:uid="{600E3230-CDAA-4854-88C4-64CEEBA86E4B}"/>
-    <hyperlink ref="C40" r:id="rId35" xr:uid="{0C3680EA-D717-49DF-9535-D2531721E855}"/>
-    <hyperlink ref="C41" r:id="rId36" xr:uid="{DC31B136-C112-4EA9-B0B8-A9D25289A11F}"/>
-    <hyperlink ref="C42" r:id="rId37" xr:uid="{3853EDDB-6134-4439-89A4-C8D73D18F083}"/>
-    <hyperlink ref="C43" r:id="rId38" xr:uid="{B21DEC4A-6FD9-402D-8CCE-363A839B4119}"/>
-    <hyperlink ref="C44" r:id="rId39" xr:uid="{09E1BB9C-8E28-4C62-B53D-62A86B337D10}"/>
-    <hyperlink ref="C45" r:id="rId40" xr:uid="{C3EE8FAF-223F-4280-8F8C-C44D29E72595}"/>
-    <hyperlink ref="C46" r:id="rId41" xr:uid="{BD34397C-67F9-432C-9412-9683B72DBCB6}"/>
-    <hyperlink ref="C47" r:id="rId42" xr:uid="{68F049A7-D481-40DB-9A2C-481B417788C6}"/>
-    <hyperlink ref="C48" r:id="rId43" xr:uid="{107260B4-8629-406F-9D7B-BE722FE61FAC}"/>
-    <hyperlink ref="C49" r:id="rId44" xr:uid="{99A9094A-A8EA-446E-B41C-005D98202616}"/>
-    <hyperlink ref="C50" r:id="rId45" xr:uid="{6B2BF0BC-70B0-4CCB-A2D9-3993E09D5BBE}"/>
-    <hyperlink ref="C51" r:id="rId46" xr:uid="{BF2732E7-168A-4746-90DF-66D8523CA2E5}"/>
-    <hyperlink ref="C52" r:id="rId47" xr:uid="{4D4B49A2-61C0-4714-8AC1-BEB25C9FE9AE}"/>
-    <hyperlink ref="C81" r:id="rId48" xr:uid="{07D88C2F-98B6-44A4-9843-0EA1C90865E3}"/>
-    <hyperlink ref="C82" r:id="rId49" xr:uid="{5A1BBC35-887C-4E00-A789-FE85F39461AD}"/>
-    <hyperlink ref="C83" r:id="rId50" xr:uid="{B5E9A488-835F-49C9-A6D3-B061821DCD72}"/>
-    <hyperlink ref="C84" r:id="rId51" xr:uid="{8EA31F9D-F378-4768-A186-76430F6B8AC9}"/>
-    <hyperlink ref="C85" r:id="rId52" xr:uid="{5380747B-8913-4941-BE1A-54B74DACAD27}"/>
-    <hyperlink ref="C101" r:id="rId53" xr:uid="{4247251C-F4B8-4F9E-BF37-34FBB11C2DCC}"/>
-    <hyperlink ref="C100" r:id="rId54" xr:uid="{AF96F905-7034-4859-B583-BF43DE4F2B4F}"/>
-    <hyperlink ref="C99" r:id="rId55" xr:uid="{769E2D1A-081E-4E65-AB22-11497709B7BF}"/>
-    <hyperlink ref="C97" r:id="rId56" xr:uid="{934F04A3-9222-4364-8E29-BCA466618F5B}"/>
-    <hyperlink ref="C98" r:id="rId57" xr:uid="{8E6D2804-5851-4EC8-A2C2-12AF75E13457}"/>
-    <hyperlink ref="C96" r:id="rId58" xr:uid="{619091CA-441D-4D19-8847-1D7C888E9943}"/>
-    <hyperlink ref="C95" r:id="rId59" xr:uid="{DDB85C9D-9F66-4ED4-B6CB-2D6EC8C6C346}"/>
-    <hyperlink ref="C94" r:id="rId60" xr:uid="{EF7F89EA-41A7-481B-96DA-7E1994294626}"/>
-    <hyperlink ref="C89" r:id="rId61" xr:uid="{72627C1E-C18B-4E79-9D97-4AA3F43818D3}"/>
-    <hyperlink ref="C90" r:id="rId62" xr:uid="{FE09CFDB-0502-41D1-84B6-4DDA17CAAB73}"/>
-    <hyperlink ref="C91" r:id="rId63" xr:uid="{FF635EEB-A240-43EE-9CAF-6633C0B6AE0B}"/>
-    <hyperlink ref="C92" r:id="rId64" xr:uid="{075B8D86-3360-450F-ACE4-77023A544C9D}"/>
-    <hyperlink ref="C93" r:id="rId65" xr:uid="{BEDB0373-BDE4-4862-83FB-931F365D0932}"/>
-    <hyperlink ref="C88" r:id="rId66" xr:uid="{C7521943-0749-4DAA-89B0-448D0CA0FE13}"/>
-    <hyperlink ref="C87" r:id="rId67" xr:uid="{C09C3F77-1BD6-43BB-8F73-B814CB394620}"/>
-    <hyperlink ref="C86" r:id="rId68" xr:uid="{4F6A3517-1016-46C2-8BA4-8DEF97AED8B6}"/>
-    <hyperlink ref="C79" r:id="rId69" xr:uid="{1B97179B-2FCC-4AE7-BA4D-2C39BE0867EF}"/>
-    <hyperlink ref="C78" r:id="rId70" xr:uid="{7A9F5A5A-AE24-4055-9577-F5657B2EBA25}"/>
-    <hyperlink ref="C77" r:id="rId71" xr:uid="{F2B0F3EB-D7B3-4C73-87BE-E2D66555FBBE}"/>
-    <hyperlink ref="C76" r:id="rId72" xr:uid="{89A61AEB-EA26-4DBD-9208-BA3C83D408B3}"/>
-    <hyperlink ref="C75" r:id="rId73" xr:uid="{4ADBF448-D534-4CE9-9264-9761709B39A4}"/>
-    <hyperlink ref="C74" r:id="rId74" xr:uid="{254F9A82-2750-4360-88A7-83146D036B17}"/>
-    <hyperlink ref="C73" r:id="rId75" xr:uid="{13535D22-1128-4AFF-A38D-454D37159337}"/>
-    <hyperlink ref="C72" r:id="rId76" xr:uid="{9E0DE748-63B3-4A37-A315-52BEA0FF648C}"/>
-    <hyperlink ref="C71" r:id="rId77" xr:uid="{03E55231-80C4-452B-9B60-9CABB5BD381C}"/>
-    <hyperlink ref="C70" r:id="rId78" xr:uid="{75F9E5CD-34E0-4C2D-A684-48625E8B10A7}"/>
-    <hyperlink ref="C69" r:id="rId79" xr:uid="{3AF31CA8-5F29-455E-9AFA-730A60E038EB}"/>
-    <hyperlink ref="C68" r:id="rId80" xr:uid="{184C7185-F1E5-4CFE-9949-AE73A3F47212}"/>
-    <hyperlink ref="C67" r:id="rId81" xr:uid="{ABE939A2-2FA7-4BE2-AF95-EA3BFA0F1A48}"/>
-    <hyperlink ref="C65" r:id="rId82" xr:uid="{0C8FA65D-9A22-4240-B123-479E423AAAAC}"/>
-    <hyperlink ref="C66" r:id="rId83" xr:uid="{522BFE3F-1DDC-48DB-BB22-005627E21B1B}"/>
-    <hyperlink ref="C64" r:id="rId84" xr:uid="{E7BEFC20-2E38-4392-BED1-5B4F3935AA67}"/>
-    <hyperlink ref="C63" r:id="rId85" xr:uid="{A2DD4F6F-01B0-4883-BC20-B2981E22EB55}"/>
-    <hyperlink ref="C53" r:id="rId86" xr:uid="{910593E8-DA98-4575-892E-15D10C415F5F}"/>
-    <hyperlink ref="C54" r:id="rId87" xr:uid="{4B72A95F-083C-42BC-A19D-E6776E38F426}"/>
-    <hyperlink ref="C55" r:id="rId88" xr:uid="{8F025E4D-EABA-489B-B3F8-7E2A57FA7B5E}"/>
-    <hyperlink ref="C56" r:id="rId89" xr:uid="{CA5BC2D8-1534-4424-8FEE-D47755DEFE1F}"/>
-    <hyperlink ref="C57" r:id="rId90" xr:uid="{AA46D2FB-3419-40C5-BB44-EB5928BDFD2E}"/>
-    <hyperlink ref="C59" r:id="rId91" xr:uid="{5E7A2672-4444-4342-8ED4-654736626F26}"/>
-    <hyperlink ref="C58" r:id="rId92" xr:uid="{6156FA90-B21A-495B-BD2A-1D21BAE71DDF}"/>
-    <hyperlink ref="C60" r:id="rId93" xr:uid="{887F5090-9360-467C-AEDE-09996CE45307}"/>
-    <hyperlink ref="C61" r:id="rId94" xr:uid="{2427A108-8463-4B0D-869F-CB757446A152}"/>
-    <hyperlink ref="C62" r:id="rId95" xr:uid="{CC85E56C-668F-45D9-8575-F80DFD955C58}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{9E6D6312-F0AB-4CB9-9A55-EDE2DB46B329}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{E5BE8BB0-3541-4F23-BA11-DBBD35543980}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{26533002-7DB9-43AE-A5FC-ACF13EA4A2C1}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{99BBFC80-FCE0-4844-A8DB-41CE1B8D1DBB}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{600E3230-CDAA-4854-88C4-64CEEBA86E4B}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{0C3680EA-D717-49DF-9535-D2531721E855}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{DC31B136-C112-4EA9-B0B8-A9D25289A11F}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{3853EDDB-6134-4439-89A4-C8D73D18F083}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{B21DEC4A-6FD9-402D-8CCE-363A839B4119}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{09E1BB9C-8E28-4C62-B53D-62A86B337D10}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{C3EE8FAF-223F-4280-8F8C-C44D29E72595}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{BD34397C-67F9-432C-9412-9683B72DBCB6}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{68F049A7-D481-40DB-9A2C-481B417788C6}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{107260B4-8629-406F-9D7B-BE722FE61FAC}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{99A9094A-A8EA-446E-B41C-005D98202616}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{6B2BF0BC-70B0-4CCB-A2D9-3993E09D5BBE}"/>
+    <hyperlink ref="C52" r:id="rId46" xr:uid="{BF2732E7-168A-4746-90DF-66D8523CA2E5}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{4D4B49A2-61C0-4714-8AC1-BEB25C9FE9AE}"/>
+    <hyperlink ref="C82" r:id="rId48" xr:uid="{07D88C2F-98B6-44A4-9843-0EA1C90865E3}"/>
+    <hyperlink ref="C83" r:id="rId49" xr:uid="{5A1BBC35-887C-4E00-A789-FE85F39461AD}"/>
+    <hyperlink ref="C84" r:id="rId50" xr:uid="{B5E9A488-835F-49C9-A6D3-B061821DCD72}"/>
+    <hyperlink ref="C85" r:id="rId51" xr:uid="{8EA31F9D-F378-4768-A186-76430F6B8AC9}"/>
+    <hyperlink ref="C86" r:id="rId52" xr:uid="{5380747B-8913-4941-BE1A-54B74DACAD27}"/>
+    <hyperlink ref="C102" r:id="rId53" xr:uid="{4247251C-F4B8-4F9E-BF37-34FBB11C2DCC}"/>
+    <hyperlink ref="C101" r:id="rId54" xr:uid="{AF96F905-7034-4859-B583-BF43DE4F2B4F}"/>
+    <hyperlink ref="C100" r:id="rId55" xr:uid="{769E2D1A-081E-4E65-AB22-11497709B7BF}"/>
+    <hyperlink ref="C98" r:id="rId56" xr:uid="{934F04A3-9222-4364-8E29-BCA466618F5B}"/>
+    <hyperlink ref="C99" r:id="rId57" xr:uid="{8E6D2804-5851-4EC8-A2C2-12AF75E13457}"/>
+    <hyperlink ref="C97" r:id="rId58" xr:uid="{619091CA-441D-4D19-8847-1D7C888E9943}"/>
+    <hyperlink ref="C96" r:id="rId59" xr:uid="{DDB85C9D-9F66-4ED4-B6CB-2D6EC8C6C346}"/>
+    <hyperlink ref="C95" r:id="rId60" xr:uid="{EF7F89EA-41A7-481B-96DA-7E1994294626}"/>
+    <hyperlink ref="C90" r:id="rId61" xr:uid="{72627C1E-C18B-4E79-9D97-4AA3F43818D3}"/>
+    <hyperlink ref="C91" r:id="rId62" xr:uid="{FE09CFDB-0502-41D1-84B6-4DDA17CAAB73}"/>
+    <hyperlink ref="C92" r:id="rId63" xr:uid="{FF635EEB-A240-43EE-9CAF-6633C0B6AE0B}"/>
+    <hyperlink ref="C93" r:id="rId64" xr:uid="{075B8D86-3360-450F-ACE4-77023A544C9D}"/>
+    <hyperlink ref="C94" r:id="rId65" xr:uid="{BEDB0373-BDE4-4862-83FB-931F365D0932}"/>
+    <hyperlink ref="C89" r:id="rId66" xr:uid="{C7521943-0749-4DAA-89B0-448D0CA0FE13}"/>
+    <hyperlink ref="C88" r:id="rId67" xr:uid="{C09C3F77-1BD6-43BB-8F73-B814CB394620}"/>
+    <hyperlink ref="C87" r:id="rId68" xr:uid="{4F6A3517-1016-46C2-8BA4-8DEF97AED8B6}"/>
+    <hyperlink ref="C80" r:id="rId69" xr:uid="{1B97179B-2FCC-4AE7-BA4D-2C39BE0867EF}"/>
+    <hyperlink ref="C79" r:id="rId70" xr:uid="{7A9F5A5A-AE24-4055-9577-F5657B2EBA25}"/>
+    <hyperlink ref="C78" r:id="rId71" xr:uid="{F2B0F3EB-D7B3-4C73-87BE-E2D66555FBBE}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{89A61AEB-EA26-4DBD-9208-BA3C83D408B3}"/>
+    <hyperlink ref="C76" r:id="rId73" xr:uid="{4ADBF448-D534-4CE9-9264-9761709B39A4}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{254F9A82-2750-4360-88A7-83146D036B17}"/>
+    <hyperlink ref="C74" r:id="rId75" xr:uid="{13535D22-1128-4AFF-A38D-454D37159337}"/>
+    <hyperlink ref="C73" r:id="rId76" xr:uid="{9E0DE748-63B3-4A37-A315-52BEA0FF648C}"/>
+    <hyperlink ref="C72" r:id="rId77" xr:uid="{03E55231-80C4-452B-9B60-9CABB5BD381C}"/>
+    <hyperlink ref="C71" r:id="rId78" xr:uid="{75F9E5CD-34E0-4C2D-A684-48625E8B10A7}"/>
+    <hyperlink ref="C70" r:id="rId79" xr:uid="{3AF31CA8-5F29-455E-9AFA-730A60E038EB}"/>
+    <hyperlink ref="C69" r:id="rId80" xr:uid="{184C7185-F1E5-4CFE-9949-AE73A3F47212}"/>
+    <hyperlink ref="C68" r:id="rId81" xr:uid="{ABE939A2-2FA7-4BE2-AF95-EA3BFA0F1A48}"/>
+    <hyperlink ref="C66" r:id="rId82" xr:uid="{0C8FA65D-9A22-4240-B123-479E423AAAAC}"/>
+    <hyperlink ref="C67" r:id="rId83" xr:uid="{522BFE3F-1DDC-48DB-BB22-005627E21B1B}"/>
+    <hyperlink ref="C65" r:id="rId84" xr:uid="{E7BEFC20-2E38-4392-BED1-5B4F3935AA67}"/>
+    <hyperlink ref="C64" r:id="rId85" xr:uid="{A2DD4F6F-01B0-4883-BC20-B2981E22EB55}"/>
+    <hyperlink ref="C54" r:id="rId86" xr:uid="{910593E8-DA98-4575-892E-15D10C415F5F}"/>
+    <hyperlink ref="C55" r:id="rId87" xr:uid="{4B72A95F-083C-42BC-A19D-E6776E38F426}"/>
+    <hyperlink ref="C56" r:id="rId88" xr:uid="{8F025E4D-EABA-489B-B3F8-7E2A57FA7B5E}"/>
+    <hyperlink ref="C57" r:id="rId89" xr:uid="{CA5BC2D8-1534-4424-8FEE-D47755DEFE1F}"/>
+    <hyperlink ref="C58" r:id="rId90" xr:uid="{AA46D2FB-3419-40C5-BB44-EB5928BDFD2E}"/>
+    <hyperlink ref="C60" r:id="rId91" xr:uid="{5E7A2672-4444-4342-8ED4-654736626F26}"/>
+    <hyperlink ref="C59" r:id="rId92" xr:uid="{6156FA90-B21A-495B-BD2A-1D21BAE71DDF}"/>
+    <hyperlink ref="C61" r:id="rId93" xr:uid="{887F5090-9360-467C-AEDE-09996CE45307}"/>
+    <hyperlink ref="C62" r:id="rId94" xr:uid="{2427A108-8463-4B0D-869F-CB757446A152}"/>
+    <hyperlink ref="C63" r:id="rId95" xr:uid="{CC85E56C-668F-45D9-8575-F80DFD955C58}"/>
+    <hyperlink ref="C34" r:id="rId96" xr:uid="{B2A5330E-FE4F-44AC-BC3F-0B6CA291F87A}"/>
+    <hyperlink ref="C103" r:id="rId97" xr:uid="{79AAAB3F-388A-40AA-B669-CCC677A80BB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3097,10 +3158,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719E4C56-5BE7-4816-A0FC-4BB3CC3BC04E}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -3111,12 +3172,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3124,255 +3185,271 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>303</v>
+      <c r="A11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>307</v>
+      <c r="A13" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>315</v>
+      <c r="A18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>319</v>
+      <c r="A21" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>320</v>
+      <c r="A22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>344</v>
+      <c r="A24" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>350</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Supplementary Table.xlsx
+++ b/Supplementary Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangtianyuan\Desktop\基因组所\课题02.综述\文章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198F2CF-FEB7-488B-8E04-A6A0967214F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D22B2A-6020-45D2-AA44-0263D575B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1267" yWindow="563" windowWidth="20033" windowHeight="13709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="788" windowWidth="20032" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="2" r:id="rId1"/>
     <sheet name="TableS2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A simulator for all types of PacBio and ONT long reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/yukiteruono/pbsim3.git</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <t>DESAMBA</t>
   </si>
   <si>
-    <t>De Bruijn graph-based Sparse Approximate Match Block Analyzer (deSAMBA), a tailored long-read classification approach</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/hitbc/deSAMBA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -318,9 +310,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Hifiasm-meta</t>
-  </si>
-  <si>
     <t>https://github.com/lh3/hifiasm-meta</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -335,10 +324,6 @@
     <t>metaFlye</t>
   </si>
   <si>
-    <t>De novo assembler for long reads using repeat graphs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/fenderglass/Flye</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -399,10 +384,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>An assembly pipeline for bacterial genomes from long and short read</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/rrwick/Unicycler</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -466,19 +447,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Genome polisher originally developed for Nanopore and  extended for PacBio CLR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/ythuang0522/homopolish</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ratatosk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid error correction of long reads using colored de Bruijn graphs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -599,10 +572,6 @@
     <t>MetaProb2</t>
   </si>
   <si>
-    <t>Long reads binner with reads assembly, probabilistic k-mers, and graph modularity algorithm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/frankandreace/metaprob2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -746,10 +715,6 @@
     <t>MAGphase</t>
   </si>
   <si>
-    <t>Phasing for metagenomics using PacBio long reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/Magdoll/MagPhase</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1114,10 +1079,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Sanky diagram</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>circlize</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1226,10 +1187,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PacBio official workflows ranging from  base calling to sequence alignment et al</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Converts BAM formatted sequencing data into FASTQ format</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1242,10 +1199,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Quality control of the PacBio and ONT long reads</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A versatile pairwise aligner for long-reads</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1259,14 +1212,6 @@
   </si>
   <si>
     <t>Bayesian estimation of abundance with Kraken</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alignment and lower common ancestor (LCA) algorithm, highly accurate cloud platform for long-read metagenomic analyses</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mapping algorithm and expectation-maximization-based estimation for analysis of long-read metagenomic</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1322,27 +1267,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Long reads binner with K-mer, composition, and density-based clustering</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long reads binner with K-mer and latent representation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long reads binner with graph machine learning algorithms and the assembly graph generated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short and long reads binner via composition, coverage and assembly graphs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Hybrid assembly and binning workflow for metagenomics, transcriptomics and pathway analysis</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binning across a series of assembly’s toolkit for short and long read</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1471,6 +1396,82 @@
   </si>
   <si>
     <t>De novo long-read assembler using marker graph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacBio official workflows ranging from base calling to sequence alignment et al</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A simulator for all types of PacBio and ONT long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality control of the PacBio and ONT long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alignment and lower common ancestor (LCA) algorithm, cloud platform for long-read metagenome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapping algorithm and expectation-maximization-based estimation for analysis of long-read metagenome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>De Bruijn graph-based Sparse Approximate Match Block Analyzer (deSAMBA), a tailored long-read classifier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiFiasm-meta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>De novo assembler for long-reads using repeat graphs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid error correction of long-reads using colored de Bruijn graphs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-reads binner with K-mer, composition, and density-based clustering</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-reads binner with K-mer and latent representation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-reads binner with graph machine learning algorithms and the assembly graph generated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short and long-reads binner via composition, coverage and assembly graphs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-reads binner with reads assembly, probabilistic k-mers, and graph modularity algorithm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binning across a series of assembly’s toolkit for short and long-read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phasing for metagenomics using PacBio long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genome polisher originally developed for Nanopore and  extended for PacBio complete long-reads</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An assembly pipeline for bacterial genomes from short and long-read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot the Sankey Network  diagram</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1927,8 +1928,8 @@
   </sheetPr>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -1942,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
@@ -1968,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1979,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -1990,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -2001,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -2012,1042 +2013,1042 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A87" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3160,8 +3161,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -3172,12 +3173,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3185,271 +3186,271 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
